--- a/DONE 2-2-2023/DIMAILIG, ARLYN.xlsx
+++ b/DONE 2-2-2023/DIMAILIG, ARLYN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\DONE 2-2-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0088C5-96EC-4E24-B9BE-13BD2ABADC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -255,11 +254,14 @@
   <si>
     <t>DIMAILIG, ARLYN RODRIGUEZ</t>
   </si>
+  <si>
+    <t>3/17,28/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1372,7 +1374,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1415,7 +1417,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1481,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1541,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1607,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,7 +1670,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1768,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1825,7 +1827,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1892,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1933,7 +1935,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2008,7 +2010,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2194,7 +2196,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2262,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2318,7 +2320,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2384,7 +2386,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2440,7 +2442,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2517,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2558,7 +2560,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,7 +2626,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2680,7 +2682,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2778,7 +2780,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2843,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2907,25 +2909,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K127" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K127" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2937,25 +2939,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2967,13 +2969,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2982,14 +2984,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3293,7 +3295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3303,7 +3305,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3311,34 +3313,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K127"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2904" topLeftCell="A7" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="3645" topLeftCell="A69" activePane="bottomLeft"/>
+      <selection activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3359,7 +3361,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3379,7 +3381,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3399,7 +3401,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3407,7 +3409,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3420,7 +3422,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="61" t="s">
@@ -3437,7 +3439,7 @@
       <c r="J7" s="61"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +3474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3481,7 +3483,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>54.25</v>
+        <v>54.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3491,12 +3493,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3518,7 +3520,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3538,7 +3540,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3558,7 +3560,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3584,7 +3586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3604,7 +3606,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3624,7 +3626,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3644,7 +3646,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3664,7 +3666,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3684,7 +3686,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3704,7 +3706,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3724,7 +3726,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3744,7 +3746,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3768,7 +3770,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3786,7 +3788,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3806,7 +3808,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3826,7 +3828,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3846,7 +3848,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3866,7 +3868,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3886,7 +3888,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3906,7 +3908,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3926,7 +3928,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3950,7 +3952,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3970,7 +3972,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3990,7 +3992,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4014,7 +4016,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4038,7 +4040,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4056,7 +4058,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4080,7 +4082,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4100,7 +4102,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4126,7 +4128,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4146,7 +4148,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4166,7 +4168,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4186,7 +4188,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4206,7 +4208,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4230,7 +4232,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4250,7 +4252,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4270,7 +4272,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4290,7 +4292,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4314,7 +4316,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4332,7 +4334,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4352,7 +4354,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4372,7 +4374,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4392,7 +4394,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4412,7 +4414,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4432,7 +4434,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4452,7 +4454,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4472,7 +4474,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4492,7 +4494,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4512,7 +4514,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4532,7 +4534,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4552,7 +4554,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4576,7 +4578,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4594,7 +4596,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4614,7 +4616,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4634,7 +4636,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4660,7 +4662,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4680,7 +4682,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4700,7 +4702,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4720,7 +4722,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4740,7 +4742,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="49"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4760,7 +4762,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4780,7 +4782,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4800,7 +4802,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4820,7 +4822,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4846,7 +4848,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="51" t="s">
         <v>47</v>
       </c>
@@ -4864,7 +4866,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4884,39 +4886,53 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="40">
+        <v>44958</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="39"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D78" s="39">
+        <v>2</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K78" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4932,7 +4948,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4948,7 +4964,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4964,7 +4980,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4980,7 +4996,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4996,7 +5012,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -5012,7 +5028,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -5028,7 +5044,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -5044,7 +5060,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5060,7 +5076,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5076,7 +5092,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5092,7 +5108,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5108,7 +5124,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5124,7 +5140,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5140,7 +5156,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5156,7 +5172,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5172,7 +5188,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5188,7 +5204,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5204,7 +5220,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5220,7 +5236,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5236,7 +5252,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5252,7 +5268,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5268,7 +5284,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5284,7 +5300,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5300,7 +5316,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5316,7 +5332,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5332,7 +5348,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5348,7 +5364,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5364,7 +5380,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5380,7 +5396,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5396,7 +5412,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5412,7 +5428,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5428,7 +5444,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5444,7 +5460,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5460,7 +5476,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5476,7 +5492,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5492,7 +5508,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5508,7 +5524,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5524,7 +5540,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5540,7 +5556,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5556,7 +5572,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5572,7 +5588,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5588,7 +5604,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5604,7 +5620,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5620,7 +5636,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5636,7 +5652,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5652,7 +5668,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5668,7 +5684,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5684,7 +5700,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="41"/>
       <c r="B127" s="15"/>
       <c r="C127" s="42"/>
@@ -5715,10 +5731,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5741,34 +5757,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3672" topLeftCell="A13"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane ySplit="3675" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5790,7 +5806,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5814,7 +5830,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5838,7 +5854,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5846,7 +5862,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5859,7 +5875,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="61" t="s">
@@ -5876,7 +5892,7 @@
       <c r="J7" s="61"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5911,7 +5927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5935,7 +5951,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -5957,7 +5973,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43221</v>
       </c>
@@ -5981,7 +5997,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>43</v>
       </c>
@@ -5999,7 +6015,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43678</v>
       </c>
@@ -6023,7 +6039,7 @@
         <v>43681</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43770</v>
       </c>
@@ -6047,7 +6063,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>44</v>
       </c>
@@ -6065,7 +6081,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43862</v>
       </c>
@@ -6089,7 +6105,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -6111,7 +6127,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>54</v>
@@ -6133,7 +6149,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43891</v>
       </c>
@@ -6157,7 +6173,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>44075</v>
       </c>
@@ -6181,7 +6197,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>44105</v>
       </c>
@@ -6205,7 +6221,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>45</v>
       </c>
@@ -6223,7 +6239,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>44378</v>
       </c>
@@ -6247,7 +6263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44409</v>
       </c>
@@ -6271,7 +6287,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>46</v>
       </c>
@@ -6289,7 +6305,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44743</v>
       </c>
@@ -6313,7 +6329,7 @@
         <v>44764</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44774</v>
       </c>
@@ -6335,7 +6351,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>64</v>
@@ -6355,7 +6371,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44805</v>
       </c>
@@ -6379,7 +6395,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>54</v>
@@ -6401,7 +6417,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>64</v>
@@ -6421,7 +6437,7 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44835</v>
       </c>
@@ -6445,7 +6461,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>47</v>
       </c>
@@ -6463,7 +6479,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44927</v>
       </c>
@@ -6487,8 +6503,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="40">
+        <v>44958</v>
+      </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
@@ -6503,8 +6521,10 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="40">
+        <v>44986</v>
+      </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
@@ -6519,7 +6539,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6535,7 +6555,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6551,7 +6571,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6567,7 +6587,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6583,7 +6603,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6599,7 +6619,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6615,7 +6635,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6631,7 +6651,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6647,7 +6667,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6663,7 +6683,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6679,7 +6699,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6695,7 +6715,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6711,7 +6731,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6727,7 +6747,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6743,7 +6763,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6759,7 +6779,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6775,7 +6795,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6791,7 +6811,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6807,7 +6827,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6823,7 +6843,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6839,7 +6859,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6855,7 +6875,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6871,7 +6891,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6887,7 +6907,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6903,7 +6923,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6919,7 +6939,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6935,7 +6955,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6951,7 +6971,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6967,7 +6987,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6983,7 +7003,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6999,7 +7019,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7015,7 +7035,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7031,7 +7051,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7047,7 +7067,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7063,7 +7083,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7079,7 +7099,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7095,7 +7115,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7111,7 +7131,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7127,7 +7147,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7143,7 +7163,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7159,7 +7179,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7175,7 +7195,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7191,7 +7211,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7207,7 +7227,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7223,7 +7243,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7239,7 +7259,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7255,7 +7275,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7271,7 +7291,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7287,7 +7307,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7303,7 +7323,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7319,7 +7339,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7335,7 +7355,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7351,7 +7371,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7367,7 +7387,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7383,7 +7403,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7399,7 +7419,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7415,7 +7435,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7431,7 +7451,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7447,7 +7467,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7463,7 +7483,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7479,7 +7499,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7495,7 +7515,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7511,7 +7531,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7527,7 +7547,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7543,7 +7563,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7559,7 +7579,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7575,7 +7595,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7591,7 +7611,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7607,7 +7627,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7623,7 +7643,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7639,7 +7659,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7655,7 +7675,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7671,7 +7691,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7687,7 +7707,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7703,7 +7723,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7719,7 +7739,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7735,7 +7755,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7751,7 +7771,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7767,7 +7787,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7783,7 +7803,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7799,7 +7819,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7815,7 +7835,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7831,7 +7851,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7847,7 +7867,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7863,7 +7883,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7879,7 +7899,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7895,7 +7915,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7911,7 +7931,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7927,7 +7947,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7943,7 +7963,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7959,7 +7979,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -7975,7 +7995,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -7991,7 +8011,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="41"/>
       <c r="B129" s="15"/>
       <c r="C129" s="42"/>
@@ -8023,10 +8043,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8049,7 +8069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8057,21 +8077,21 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -8084,7 +8104,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8113,7 +8133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>19.957999999999998</v>
       </c>
@@ -8137,17 +8157,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8168,7 +8188,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8195,7 +8215,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8221,7 +8241,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8247,7 +8267,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8273,7 +8293,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8299,7 +8319,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8325,7 +8345,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8351,7 +8371,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8377,7 +8397,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8397,7 +8417,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8417,7 +8437,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8437,7 +8457,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8458,7 +8478,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8479,7 +8499,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8500,7 +8520,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8521,7 +8541,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8542,7 +8562,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8563,7 +8583,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8584,7 +8604,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8605,7 +8625,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8626,7 +8646,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8647,7 +8667,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8668,7 +8688,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8689,7 +8709,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8710,7 +8730,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8731,7 +8751,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8752,7 +8772,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8773,7 +8793,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8794,7 +8814,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8815,7 +8835,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8836,7 +8856,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8857,7 +8877,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8866,7 +8886,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8875,7 +8895,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8884,7 +8904,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8893,7 +8913,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8902,7 +8922,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8911,7 +8931,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8920,7 +8940,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8929,7 +8949,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8938,7 +8958,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8947,7 +8967,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8956,7 +8976,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8965,7 +8985,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8974,7 +8994,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8983,7 +9003,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8992,7 +9012,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9001,7 +9021,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9010,7 +9030,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9019,7 +9039,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9028,7 +9048,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9037,7 +9057,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9046,7 +9066,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9055,7 +9075,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9064,7 +9084,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9073,7 +9093,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9082,7 +9102,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9091,7 +9111,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9100,7 +9120,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9109,7 +9129,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9118,7 +9138,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
